--- a/medicine/Mort/Cimetière_de_Wurtzbourg/Cimetière_de_Wurtzbourg.xlsx
+++ b/medicine/Mort/Cimetière_de_Wurtzbourg/Cimetière_de_Wurtzbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Wurtzbourg</t>
+          <t>Cimetière_de_Wurtzbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Hauptfriedhof Würzburg (cimetière principal de Wurtzbourg) est avec une superficie de 112 727 m2 et un total de 20 000 tombes le plus grand cimetière de Wurtzbourg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Wurtzbourg</t>
+          <t>Cimetière_de_Wurtzbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est créé en 1803 en dehors des nouvelles limites de la ville pour répondre aux nouvelles normes d'hygiène. Il est consacré le 3 juin par le pasteur Deppisch. En 1806, il est mis en service. La première personne enterrée est l'aubergiste Jakob Winter.
 La première morgue est mise en service en 1828 et remplacée en 1896 par un nouveau bâtiment. En 1909, la morgue est électrifiée. En 1911, les urnes sont accueillies.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Wurtzbourg</t>
+          <t>Cimetière_de_Wurtzbourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Max Dauthendey (de) (1867-1918), peintre et poète.
 Ignaz Ising (de) (1845–1919), médecin balnéologue.
